--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1040836.39878987</v>
+        <v>-1043177.371949041</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836241</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>279.9068503741182</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>44.15793102748304</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>130.7347736851482</v>
+        <v>9.254221223750108</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>113.7145621736546</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>210.2566159882294</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>142.9583922661625</v>
+        <v>184.1337628832778</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -953,13 +953,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>83.52829397039073</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>55.66811582074952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>33.21446231455224</v>
       </c>
       <c r="S8" t="n">
-        <v>17.83981377311385</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.7218456862862</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>194.7047996847259</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1427,10 +1427,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>122.1318257585953</v>
+        <v>130.2547714095889</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>41.45417094303374</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,19 +1819,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.7822816698246</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>115.1269998040535</v>
       </c>
       <c r="T19" t="n">
-        <v>135.0799475670964</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>172.4209394294446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>22.19879540445088</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>75.97812655527346</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2609,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>42.67804628306374</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.26879610203984</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>43.54171107304281</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124634</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124559</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1474.891294454223</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>1105.928777513812</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>747.6630789070612</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>747.6630789070612</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>336.6771741174535</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2421.338943128054</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2167.577157766146</v>
       </c>
       <c r="V2" t="n">
-        <v>1861.491134518345</v>
+        <v>2158.229459560338</v>
       </c>
       <c r="W2" t="n">
-        <v>1861.491134518345</v>
+        <v>2158.229459560338</v>
       </c>
       <c r="X2" t="n">
-        <v>1861.491134518345</v>
+        <v>1784.763701299258</v>
       </c>
       <c r="Y2" t="n">
-        <v>1861.491134518345</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.1849863041093</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C4" t="n">
-        <v>338.1849863041093</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>326.554548502637</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>338.1849863041093</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>338.1849863041093</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>338.1849863041093</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.1849863041093</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1893.744059709404</v>
+        <v>1549.547090562791</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4601,16 +4601,16 @@
         <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2267.209817970484</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.744059709404</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y5" t="n">
-        <v>1893.744059709404</v>
+        <v>1936.146930626913</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4659,34 +4659,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.4813941485145</v>
+        <v>416.4487827635302</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="S8" t="n">
-        <v>2679.129077105986</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="T8" t="n">
-        <v>2679.129077105986</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="U8" t="n">
-        <v>2679.129077105986</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="V8" t="n">
-        <v>2679.129077105986</v>
+        <v>2332.53624174076</v>
       </c>
       <c r="W8" t="n">
-        <v>2679.129077105986</v>
+        <v>1979.767586470646</v>
       </c>
       <c r="X8" t="n">
-        <v>2305.663318844906</v>
+        <v>1606.301828209567</v>
       </c>
       <c r="Y8" t="n">
-        <v>2305.663318844906</v>
+        <v>1216.162496233755</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>529.4200491697815</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>529.4200491697815</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>529.4200491697815</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5036,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5054,28 +5054,28 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5151,7 +5151,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>998.7893082582084</v>
+        <v>710.6604776707946</v>
       </c>
       <c r="C13" t="n">
-        <v>829.8531253303015</v>
+        <v>541.7242947428878</v>
       </c>
       <c r="D13" t="n">
-        <v>679.7364859179658</v>
+        <v>541.7242947428878</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.890966501056</v>
+        <v>1475.554715057172</v>
       </c>
       <c r="V13" t="n">
-        <v>1288.206478295169</v>
+        <v>1220.870226851285</v>
       </c>
       <c r="W13" t="n">
-        <v>998.7893082582084</v>
+        <v>931.4530568143248</v>
       </c>
       <c r="X13" t="n">
-        <v>998.7893082582084</v>
+        <v>931.4530568143248</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.7893082582084</v>
+        <v>710.6604776707946</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5273,55 +5273,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,22 +5385,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>556.371005353728</v>
+        <v>749.593891011148</v>
       </c>
       <c r="C16" t="n">
-        <v>556.371005353728</v>
+        <v>580.6577080832411</v>
       </c>
       <c r="D16" t="n">
-        <v>556.371005353728</v>
+        <v>430.5410686709054</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>430.5410686709054</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>283.651121172995</v>
       </c>
       <c r="G16" t="n">
         <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5443,43 +5443,43 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104705</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931532</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501058</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626701</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208144</v>
+        <v>1198.376021052695</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838539</v>
+        <v>1198.376021052695</v>
       </c>
       <c r="X16" t="n">
-        <v>709.6864413838539</v>
+        <v>970.3864701546781</v>
       </c>
       <c r="Y16" t="n">
-        <v>556.371005353728</v>
+        <v>749.593891011148</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5625,7 +5625,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.5676213586405</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C19" t="n">
-        <v>392.5676213586405</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1840.053567312731</v>
       </c>
       <c r="T19" t="n">
-        <v>1628.213190449615</v>
+        <v>1840.053567312731</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.110323575258</v>
+        <v>1550.950700438374</v>
       </c>
       <c r="V19" t="n">
-        <v>1084.425835369371</v>
+        <v>1296.266212232487</v>
       </c>
       <c r="W19" t="n">
-        <v>795.0086653324104</v>
+        <v>1006.849042195526</v>
       </c>
       <c r="X19" t="n">
-        <v>795.0086653324104</v>
+        <v>778.8594912975091</v>
       </c>
       <c r="Y19" t="n">
-        <v>574.2160861888802</v>
+        <v>558.0669121539789</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,19 +5735,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5765,37 +5765,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>506.8067350374723</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C22" t="n">
-        <v>506.8067350374723</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D22" t="n">
-        <v>506.8067350374723</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5941,19 +5941,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1278.897944178337</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1024.21345597245</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>734.7962859354897</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>506.8067350374723</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.8067350374723</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
@@ -5993,22 +5993,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1586.925993846823</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518747</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6063,16 +6063,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.5797464134954</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C25" t="n">
-        <v>511.6435634855885</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D25" t="n">
-        <v>361.5269240732528</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E25" t="n">
-        <v>361.5269240732528</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570255</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X25" t="n">
-        <v>901.3723255570255</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y25" t="n">
-        <v>680.5797464134954</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,22 +6224,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>321.2053114736835</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>975.9286436089831</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1840.447459262338</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6294,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,7 +6321,7 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>452.5901955154781</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>452.5901955154781</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>452.5901955154781</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>452.5901955154781</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>452.5901955154781</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>284.887358890197</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>138.6701721080548</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.5901955154781</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6473,40 +6473,40 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1912.361939768297</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1720.676055595123</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1498.909440164649</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1209.806573290293</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>955.1220850844059</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
@@ -6704,46 +6704,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6774,10 +6774,10 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416725</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430903</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932532</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160455</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819766</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477364</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,13 +6877,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6892,16 +6892,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036725</v>
+        <v>922.7139997036717</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6941,40 +6941,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1586.925993846824</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,16 +7044,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E37" t="n">
         <v>463.8981507430893</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G37" t="n">
         <v>244.2046325160445</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819754</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7132,10 +7132,10 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
         <v>922.7139997036716</v>
@@ -7154,37 +7154,37 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7330,13 +7330,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477365</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.746804049922</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7436,19 +7436,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215047</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416711</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774087</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430889</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932518</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160441</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819754</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7591,13 +7591,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
         <v>1725.799256195774</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,52 +7646,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,22 +7725,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902952</v>
@@ -7749,16 +7749,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215047</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416711</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774087</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.898150743089</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.457836193252</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,31 +7825,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036711</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>258.621178561693</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>29.61882225792044</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>37.13651117804412</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>344.7025836476839</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10121,10 +10121,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>29.61882225792135</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>133.8773196466768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>318.4980372463848</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-5.219052476067773e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>24.30213688797384</v>
+        <v>16.17919123698024</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>124.5716373159945</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.80237168227021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23938,10 +23938,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>74.64202552738844</v>
       </c>
       <c r="T19" t="n">
-        <v>84.46900170907281</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>69.99732345939672</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>113.7908987761683</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>123.2222526184804</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>142.6065267968213</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>53.67437412677435</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.5631840798974</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24847,10 +24847,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>45.39044159700452</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1269444.277432543</v>
+        <v>1269444.277432542</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1269444.277432543</v>
+        <v>1269444.277432542</v>
       </c>
     </row>
   </sheetData>
@@ -26320,22 +26320,22 @@
         <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
+        <v>178686.8040991427</v>
+      </c>
+      <c r="F2" t="n">
         <v>178686.8040991426</v>
-      </c>
-      <c r="F2" t="n">
-        <v>178686.8040991425</v>
       </c>
       <c r="G2" t="n">
         <v>178686.8040991427</v>
       </c>
       <c r="H2" t="n">
-        <v>178686.8040991426</v>
+        <v>178686.8040991427</v>
       </c>
       <c r="I2" t="n">
+        <v>178686.8040991424</v>
+      </c>
+      <c r="J2" t="n">
         <v>178686.8040991425</v>
-      </c>
-      <c r="J2" t="n">
-        <v>178686.8040991426</v>
       </c>
       <c r="K2" t="n">
         <v>178686.8040991426</v>
@@ -26344,13 +26344,13 @@
         <v>184734.398219464</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.398219464</v>
       </c>
       <c r="N2" t="n">
         <v>184734.398219464</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.398219464</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194639</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487409</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153011.2610588576</v>
+        <v>153011.2610588578</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918992</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740894</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740895</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740902</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-653063.0257141594</v>
+        <v>-653195.9057763463</v>
       </c>
       <c r="C6" t="n">
-        <v>-81473.36670107374</v>
+        <v>-81473.36670107377</v>
       </c>
       <c r="D6" t="n">
         <v>-81473.36670107368</v>
       </c>
       <c r="E6" t="n">
-        <v>-663222.6204671678</v>
+        <v>-663289.8159573933</v>
       </c>
       <c r="F6" t="n">
-        <v>64154.79352623889</v>
+        <v>64087.5980360132</v>
       </c>
       <c r="G6" t="n">
-        <v>64154.79352623907</v>
+        <v>64087.59803601329</v>
       </c>
       <c r="H6" t="n">
-        <v>64154.79352623904</v>
+        <v>64087.59803601329</v>
       </c>
       <c r="I6" t="n">
-        <v>64154.79352623889</v>
+        <v>64087.59803601309</v>
       </c>
       <c r="J6" t="n">
-        <v>-112268.4256663539</v>
+        <v>-112335.6211565798</v>
       </c>
       <c r="K6" t="n">
-        <v>64154.79352623902</v>
+        <v>64087.59803601322</v>
       </c>
       <c r="L6" t="n">
-        <v>13215.9646130788</v>
+        <v>13215.96461307886</v>
       </c>
       <c r="M6" t="n">
-        <v>-78846.24093099206</v>
+        <v>-78846.24093099177</v>
       </c>
       <c r="N6" t="n">
-        <v>50796.07390795306</v>
+        <v>50796.07390795293</v>
       </c>
       <c r="O6" t="n">
-        <v>50796.07390795278</v>
+        <v>50796.07390795293</v>
       </c>
       <c r="P6" t="n">
-        <v>50796.07390795276</v>
+        <v>50796.07390795281</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>172.2903893301747</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>197.0174847849867</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>53.59524008539628</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>76.02525825374832</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>222.3144995048451</v>
+        <v>181.1391288877298</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>202.753580271587</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>162.9165375313453</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>21.26394026025945</v>
       </c>
       <c r="S8" t="n">
-        <v>156.5758990358577</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>15.4236932637327</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>31.00485570431127</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35586,7 +35586,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789272</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934823</v>
       </c>
       <c r="N16" t="n">
         <v>344.8569461675401</v>
@@ -35820,7 +35820,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451121</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
         <v>78.39423853789366</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>766.6741794499121</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36361,7 +36361,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>485.2089366502526</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36379,7 +36379,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>227.9235121467567</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>883.6236994779107</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36841,10 +36841,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37309,7 +37309,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>485.2089366502535</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37327,7 +37327,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120764</v>
@@ -37543,25 +37543,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37956,7 +37956,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
